--- a/trend_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
+++ b/trend_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.125671923580312</v>
+        <v>0.874328076419688</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.178087969284421</v>
+        <v>0.8219120307155789</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0003260899545636</v>
+        <v>0.999673910045436</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.50842575350543e-06</v>
+        <v>0.999998491574246</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.231216363225238</v>
+        <v>0.988016201182121</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0.835365853658537</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.34</v>
+        <v>11.175</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0233457217605417</v>
+        <v>0.0470369028019293</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.08469022097178321</v>
+        <v>0.01164191502709</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0119579450874892</v>
+        <v>0.09191688361174059</v>
       </c>
       <c r="N27" t="n">
-        <v>-6.8663887531005</v>
+        <v>0.420911881896459</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2902,7 +2902,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2912,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2927,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>0.183338020194242</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.283132530120482</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>90</v>
+        <v>0.0215</v>
       </c>
       <c r="K28" t="n">
-        <v>0.309165439279558</v>
+        <v>0.0002111044439068</v>
       </c>
       <c r="L28" t="n">
-        <v>-6.49833565021578</v>
+        <v>-0.0001824657105028</v>
       </c>
       <c r="M28" t="n">
-        <v>1.79031393112198</v>
+        <v>0.0005010420171325</v>
       </c>
       <c r="N28" t="n">
-        <v>0.343517154755065</v>
+        <v>0.981881134450453</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2960,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2989,7 +2993,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2999,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3014,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.110335680959923</v>
+        <v>0.999999970828956</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0060975609756097</v>
       </c>
       <c r="H29" t="n">
+        <v>0.792682926829268</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>4.51</v>
+        <v>309.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.395827764976959</v>
+        <v>-32.3771019147058</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.883821904727444</v>
+        <v>-46.4915069175903</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0522207935913837</v>
+        <v>-21.3457792207792</v>
       </c>
       <c r="N29" t="n">
-        <v>-8.77666884649576</v>
+        <v>-10.4610991646868</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3047,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3076,7 +3084,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3086,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.008244328363835001</v>
+        <v>0.927075759674458</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.58125</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.54375</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>0.41</v>
+        <v>0.008781357832593701</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0211975446428571</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0303115071601907</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.011950921131142</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-5.17013283972125</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3175,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.063424647007573</v>
+        <v>0.954666583742624</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.371794871794872</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9</v>
+        <v>0.134615384615385</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>90.5</v>
+        <v>0.00275</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.759882108183079</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.87730494120725</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0380422305344646</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.839648738323844</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3250,7 +3266,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.087654040404137</v>
+        <v>0.975570036839926</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.301282051282051</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>4.946</v>
+        <v>0.052</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.170521026752229</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.324459869058272</v>
+        <v>-0.0008343684827326</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0433777664974506</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-3.44765521132692</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3337,7 +3357,1071 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.999999997942171</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.642424242424242</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0500065200205654</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0377646427933082</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0640971728410973</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.609092813892392</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.996589114668145</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0481927710843374</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.650602409638554</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0655</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0013005179377524</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0033209281029292</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.0004167410914278</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1.98552356908769</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999999359489291</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.72289156626506</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.015756205335461</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0272360675039246</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.009136926495454299</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-2.89104685054331</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.885180399304978</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.518072289156627</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0005270562770562</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0014504085214204</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0001818936636985</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.30137352359575</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.997418204776686</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.855421686746988</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.051106956722226</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.114834791270976</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0184329760845559</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-3.11627784891622</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0233457217605417</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.08469022097178321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0119579450874892</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-6.8663887531005</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>90</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.309165439279558</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-6.49833565021578</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.79031393112198</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.343517154755065</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.395827764976959</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.883821904727444</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0522207935913837</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-8.77666884649576</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.008244328363835001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0211975446428571</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0303115071601907</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.011950921131142</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-5.17013283972125</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.063424647007573</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.759882108183079</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-1.87730494120725</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0380422305344646</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.839648738323844</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.087654040404137</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.946</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.170521026752229</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.324459869058272</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0433777664974506</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-3.44765521132692</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.055611879571221</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>92</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.385854637650539</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.855766123569075</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.419407214837542</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
+++ b/trend_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.874328076419688</v>
+        <v>0.012309569071535</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.982758620689655</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.605</v>
+        <v>11.48</v>
       </c>
       <c r="K2" t="n">
-        <v>0.152043519394513</v>
+        <v>-0.292429356357928</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0654365084166241</v>
+        <v>-0.476689833069566</v>
       </c>
       <c r="M2" t="n">
-        <v>0.350586631447514</v>
+        <v>-0.0755859354852455</v>
       </c>
       <c r="N2" t="n">
-        <v>1.31015527267999</v>
+        <v>-2.54729404492968</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.67219288498763</v>
+        <v>0.882833406396895</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.568965517241379</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0235</v>
+        <v>0.0205</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0002915169652576</v>
+        <v>-0.0013731203007518</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0016744530559261</v>
+        <v>-0.0023506094492806</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0010249693209194</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.24049772450049</v>
+        <v>-6.69814780854576</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.785817876244522</v>
+        <v>0.197015536000044</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H4" t="n">
-        <v>0.706896551724138</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K4" t="n">
-        <v>-10.6871772805508</v>
+        <v>8.91941391941392</v>
       </c>
       <c r="L4" t="n">
-        <v>-39.8554481540809</v>
+        <v>-8.360192217868979</v>
       </c>
       <c r="M4" t="n">
-        <v>12.7295383587735</v>
+        <v>25.5552398119848</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.89495308422631</v>
+        <v>6.60697327363994</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.244350074989068</v>
+        <v>0.670483639912164</v>
       </c>
       <c r="G5" t="n">
-        <v>0.576923076923077</v>
+        <v>0.547169811320755</v>
       </c>
       <c r="H5" t="n">
-        <v>0.653846153846154</v>
+        <v>0.584905660377358</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0131301464694557</v>
+        <v>0.0116318975457732</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.0004082618455799</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0011180542454164</v>
+        <v>-0.0022891578385281</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-3.50984733121477</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.754771204646721</v>
+        <v>0.943678191505802</v>
       </c>
       <c r="G6" t="n">
         <v>0.448275862068966</v>
@@ -949,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0.0003751870785194</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8861156603943831</v>
+        <v>0.714484564267869</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293103448275862</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="H7" t="n">
-        <v>0.672413793103448</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0215</v>
+        <v>0.0195</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0004989837910472</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.006673973817169</v>
+        <v>-0.0037628777472527</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.32085484208039</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8219120307155789</v>
+        <v>0.015038932103785</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8.42</v>
+        <v>8.41</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0299938423645317</v>
+        <v>-0.089715305809056</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0276112439114522</v>
+        <v>-0.158329510567143</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09691575269269929</v>
+        <v>-0.0221516989744448</v>
       </c>
       <c r="N8" t="n">
-        <v>0.356221405754533</v>
+        <v>-1.06676939130863</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.920489778898223</v>
+        <v>0.722866081837841</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.724137931034483</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0027166869678022</v>
+        <v>-0.0018329265849612</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.009536398524103601</v>
+        <v>-0.0067423320219957</v>
       </c>
       <c r="M9" t="n">
-        <v>4.76700378711992e-05</v>
+        <v>0.0012845923623766</v>
       </c>
       <c r="N9" t="n">
-        <v>-8.763506347749271</v>
+        <v>-6.10975528320421</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1282,46 +1282,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.631433872193868</v>
+        <v>0.0519443296589569</v>
       </c>
       <c r="G10" t="n">
-        <v>0.379310344827586</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.241379310344828</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0.445</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.0200114895698032</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0.0003135300910495</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0676688716226138</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.49696394827039</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.882833406396895</v>
+        <v>0.0454090968317935</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.741379310344828</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.43</v>
+        <v>0.041</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0100343406593407</v>
+        <v>0.0031217948717948</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0497336867545406</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005100034358498</v>
+        <v>0.00599512382712</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.3335675951955</v>
+        <v>7.61413383364603</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.724871058516963</v>
+        <v>0.0380207379151217</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.758620689655172</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0415</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0010435714285714</v>
+        <v>0.139811813186813</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0039633023104795</v>
+        <v>0.0116244057390153</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0018481831797934</v>
+        <v>0.354620008574799</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.51462994836489</v>
+        <v>13.3154107796965</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4.65200265398202e-06</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.803571428571429</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.948055670341043</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.844827586206897</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.110070666699193</v>
+        <v>-0.399905454191769</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.304275659099621</v>
+        <v>-0.565569588696764</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.01303594072161</v>
+        <v>-0.225626968545615</v>
       </c>
       <c r="N13" t="n">
-        <v>-10.4829206380184</v>
+        <v>-29.6226262364273</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0001039855029419</v>
+        <v>0.97150084679474</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.76271186440678</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.6</v>
+        <v>11.075</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.427241972477064</v>
+        <v>0.05746845169627</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.626465502758072</v>
+        <v>0.0096055211296662</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.200686813186813</v>
+        <v>0.125538707543132</v>
       </c>
       <c r="N14" t="n">
-        <v>-26.7026232798165</v>
+        <v>0.518902498386185</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.999673910045436</v>
+        <v>0.176833977230456</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.88135593220339</v>
+        <v>0.364406779661017</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11.105</v>
+        <v>0.0205</v>
       </c>
       <c r="K15" t="n">
-        <v>0.112205319192177</v>
+        <v>0.0003334111384418</v>
       </c>
       <c r="L15" t="n">
-        <v>0.053108115505763</v>
+        <v>-0.0002496942573654</v>
       </c>
       <c r="M15" t="n">
-        <v>0.172783658224915</v>
+        <v>0.0008007646292411</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01040359470668</v>
+        <v>1.62639579727731</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.999903197937666</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.008547008547008499</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.735042735042735</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.004013575298338</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.364406779661017</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>0.021</v>
+        <v>190</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007981455019491</v>
+        <v>-20.5534648611782</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003341352734755</v>
+        <v>-32.3067584532153</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0012520521246625</v>
+        <v>-11.1914112710042</v>
       </c>
       <c r="N16" t="n">
-        <v>3.80069286642445</v>
+        <v>-10.8176130848306</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.99975563663723</v>
+        <v>0.0460631148777095</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="H17" t="n">
-        <v>0.760683760683761</v>
+        <v>0.482142857142857</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J17" t="n">
-        <v>210</v>
+        <v>0.0067447316855871</v>
       </c>
       <c r="K17" t="n">
-        <v>-23.0562661660437</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-36.0202409433484</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-11.5942627315285</v>
+        <v>0.0002802096835896</v>
       </c>
       <c r="N17" t="n">
-        <v>-10.9791743647827</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.010272593677268</v>
+        <v>0.821029238133458</v>
       </c>
       <c r="G18" t="n">
-        <v>0.723214285714286</v>
+        <v>0.389830508474576</v>
       </c>
       <c r="H18" t="n">
-        <v>0.455357142857143</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0059275650927583</v>
+        <v>0.002</v>
       </c>
       <c r="K18" t="n">
-        <v>8.54402981952147e-05</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0006618510481358</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.44140632550111</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,25 +2116,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.898423567435636</v>
+        <v>0.885733716954704</v>
       </c>
       <c r="G19" t="n">
         <v>0.338983050847458</v>
       </c>
       <c r="H19" t="n">
-        <v>0.144067796610169</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003</v>
+        <v>0.0275</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0005010288065843</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.616286586219108</v>
+        <v>0.999938568856804</v>
       </c>
       <c r="G20" t="n">
-        <v>0.330508474576271</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.635593220338983</v>
+        <v>0.658119658119658</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.024</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0476093089262732</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0292971058309302</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0703564720068434</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.57429805701174</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,11 +2269,7 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2283,46 +2279,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.999998491574246</v>
+        <v>0.774222759984256</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H21" t="n">
-        <v>0.658119658119658</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>8.289999999999999</v>
+        <v>0.034</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0605571845951414</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.039810673885858</v>
+        <v>-0.0017472572591017</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08301484017483669</v>
+        <v>0.0004936904087849</v>
       </c>
       <c r="N21" t="n">
-        <v>0.730484735767689</v>
+        <v>0</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2327,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,7 +2356,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2381,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.393791162027736</v>
+        <v>0.968062072232978</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.61864406779661</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.032</v>
+        <v>0.455</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001661737943585</v>
+        <v>-0.0066259171168265</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0004901285839647</v>
+        <v>-0.0125378243696596</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0012433627405555</v>
+        <v>-0.0007118499365782001</v>
       </c>
       <c r="N22" t="n">
-        <v>0.519293107370337</v>
+        <v>-1.45624552018167</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.955127654844192</v>
+        <v>0.0870999560686289</v>
       </c>
       <c r="G23" t="n">
-        <v>0.254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.279661016949153</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0.042</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0009262468300929001</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.146552312907523</v>
+        <v>-0.0001931542895231</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.20534959545949</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9907980934531631</v>
+        <v>0.271662092424094</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.771186440677966</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.445</v>
+        <v>1.35</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0075228302219782</v>
+        <v>0.018295019177939</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0130508395553346</v>
+        <v>-0.0225349039735457</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0023791980065853</v>
+        <v>0.0680509940967518</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.69052364538836</v>
+        <v>1.35518660577326</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0568070196335457</v>
+        <v>0.135304980834187</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="H25" t="n">
-        <v>0.567796610169492</v>
+        <v>0.627450980392157</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0395</v>
+        <v>1.55</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0009487012987012</v>
+        <v>-0.0228308794598593</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-0.0856872282753308</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0018858228549869</v>
+        <v>0.0152977199964426</v>
       </c>
       <c r="N25" t="n">
-        <v>2.40177543975012</v>
+        <v>-1.47295996515221</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.701365530962617</v>
+        <v>0.884001985281595</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.872881355932203</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.25</v>
+        <v>11.075</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0109876150828577</v>
+        <v>0.0283578819918625</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0458215953119646</v>
+        <v>-0.0096820175519572</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0299781384952065</v>
+        <v>0.0571424230367311</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.879009206628618</v>
+        <v>0.256053110536005</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2836,35 +2836,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.988016201182121</v>
+        <v>0.39108313628819</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.835365853658537</v>
+        <v>0.264044943820225</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.175</v>
+        <v>0.021</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0470369028019293</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01164191502709</v>
+        <v>-0.0002866681417197</v>
       </c>
       <c r="M27" t="n">
-        <v>0.09191688361174059</v>
+        <v>0.000333040880877</v>
       </c>
       <c r="N27" t="n">
-        <v>0.420911881896459</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.183338020194242</v>
+        <v>0.999999998614974</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H28" t="n">
-        <v>0.283132530120482</v>
+        <v>0.789772727272727</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0215</v>
+        <v>277.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0002111044439068</v>
+        <v>-29.7513746098131</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0001824657105028</v>
+        <v>-41.8490932599285</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0005010420171325</v>
+        <v>-20.5978744732509</v>
       </c>
       <c r="N28" t="n">
-        <v>0.981881134450453</v>
+        <v>-10.7212160756083</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3018,35 +3018,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.999999970828956</v>
+        <v>0.955149817609618</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0060975609756097</v>
+        <v>0.581395348837209</v>
       </c>
       <c r="H29" t="n">
-        <v>0.792682926829268</v>
+        <v>0.534883720930233</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J29" t="n">
-        <v>309.5</v>
+        <v>0.0086949671057486</v>
       </c>
       <c r="K29" t="n">
-        <v>-32.3771019147058</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-46.4915069175903</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-21.3457792207792</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-10.4610991646868</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.927075759674458</v>
+        <v>0.97427476620939</v>
       </c>
       <c r="G30" t="n">
-        <v>0.58125</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="H30" t="n">
-        <v>0.54375</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="I30" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.008781357832593701</v>
+        <v>0.00275</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,25 +3204,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.954666583742624</v>
+        <v>0.988513418838037</v>
       </c>
       <c r="G31" t="n">
-        <v>0.371794871794872</v>
+        <v>0.31547619047619</v>
       </c>
       <c r="H31" t="n">
-        <v>0.134615384615385</v>
+        <v>0.630952380952381</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00275</v>
+        <v>0.052</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.000839055118319</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.975570036839926</v>
+        <v>0.99999997086911</v>
       </c>
       <c r="G32" t="n">
-        <v>0.301282051282051</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.641025641025641</v>
+        <v>0.621468926553672</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.052</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0421950931968535</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0008343684827326</v>
+        <v>0.0303620493424524</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0543535788720184</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.513947541983599</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3357,11 +3357,7 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3371,14 +3367,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,31 +3382,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.999999997942171</v>
+        <v>0.998693531472582</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="H33" t="n">
-        <v>0.642424242424242</v>
+        <v>0.7247191011235951</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>8.210000000000001</v>
+        <v>0.06525</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0500065200205654</v>
+        <v>-0.0012076232667855</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0377646427933082</v>
+        <v>-0.003010292009956</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0640971728410973</v>
+        <v>-0.000468071487847</v>
       </c>
       <c r="N33" t="n">
-        <v>0.609092813892392</v>
+        <v>-1.85076362725758</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,7 +3444,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.996589114668145</v>
+        <v>0.999976227592454</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0481927710843374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.650602409638554</v>
+        <v>0.713483146067416</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0655</v>
+        <v>0.5525</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0013005179377524</v>
+        <v>-0.0121512676534578</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0033209281029292</v>
+        <v>-0.0215963001742783</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0004167410914278</v>
+        <v>-0.0065711114352958</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.98552356908769</v>
+        <v>-2.1993244621643</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3549,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999999359489291</v>
+        <v>0.712250593824641</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.72289156626506</v>
+        <v>0.5</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.545</v>
+        <v>0.0415</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.015756205335461</v>
+        <v>-0.0002239423666462</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0272360675039246</v>
+        <v>-0.0009484718818424</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.009136926495454299</v>
+        <v>0.0004240563707878</v>
       </c>
       <c r="N35" t="n">
-        <v>-2.89104685054331</v>
+        <v>-0.539620160593324</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.885180399304978</v>
+        <v>0.968429510451394</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.518072289156627</v>
+        <v>0.853932584269663</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0405</v>
+        <v>1.795</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0005270562770562</v>
+        <v>-0.0301030219780219</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0014504085214204</v>
+        <v>-0.0739167890666326</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001818936636985</v>
+        <v>-0.0037800594171072</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.30137352359575</v>
+        <v>-1.67704857816278</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3731,46 +3731,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.997418204776686</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.855421686746988</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.64</v>
+        <v>0.34</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.051106956722226</v>
+        <v>0.0143751563528637</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.114834791270976</v>
+        <v>-0.07344557001555289</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0184329760845559</v>
+        <v>0.0482541542222427</v>
       </c>
       <c r="N37" t="n">
-        <v>-3.11627784891622</v>
+        <v>4.22798716260698</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3808,11 +3808,7 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3822,7 +3818,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3837,31 +3833,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.231216363225238</v>
+        <v>0.693322822022627</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.34</v>
+        <v>91</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0233457217605417</v>
+        <v>0.8309123480908021</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.08469022097178321</v>
+        <v>-6.17355492696375</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0119579450874892</v>
+        <v>3.64586929667761</v>
       </c>
       <c r="N38" t="n">
-        <v>-6.8663887531005</v>
+        <v>0.913090492407475</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3866,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3909,7 +3905,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3924,7 +3920,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3936,19 +3932,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>90</v>
+        <v>4.51</v>
       </c>
       <c r="K39" t="n">
-        <v>0.309165439279558</v>
+        <v>0.168698314360488</v>
       </c>
       <c r="L39" t="n">
-        <v>-6.49833565021578</v>
+        <v>-0.883821904727444</v>
       </c>
       <c r="M39" t="n">
-        <v>1.79031393112198</v>
+        <v>0.89336613269967</v>
       </c>
       <c r="N39" t="n">
-        <v>0.343517154755065</v>
+        <v>3.74053912107513</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3996,11 +3992,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4011,7 +4007,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.110335680959923</v>
+        <v>0.125726093254011</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4023,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.51</v>
+        <v>0.41</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.395827764976959</v>
+        <v>-0.0107939159304116</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.883821904727444</v>
+        <v>-0.0240185244782344</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0522207935913837</v>
+        <v>0.0011316704475812</v>
       </c>
       <c r="N40" t="n">
-        <v>-8.77666884649576</v>
+        <v>-2.63266242205161</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4083,7 +4079,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4098,31 +4094,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.008244328363835001</v>
+        <v>0.428445211206309</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.41</v>
+        <v>90.5</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0211975446428571</v>
+        <v>-0.08089834710743821</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0303115071601907</v>
+        <v>-0.931764702796414</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.011950921131142</v>
+        <v>0.581384179778491</v>
       </c>
       <c r="N41" t="n">
-        <v>-5.17013283972125</v>
+        <v>-0.0893904387927494</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4127,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4170,7 +4166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4185,31 +4181,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.063424647007573</v>
+        <v>0.541517381685568</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>90.5</v>
+        <v>4.946</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.759882108183079</v>
+        <v>0.0719143382687072</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.87730494120725</v>
+        <v>-0.22805470822971</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0380422305344646</v>
+        <v>0.151062072967053</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.839648738323844</v>
+        <v>1.45398985581697</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4218,7 +4214,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4257,11 +4253,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -4272,31 +4268,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.087654040404137</v>
+        <v>0.089228300179184</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.946</v>
+        <v>93</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.170521026752229</v>
+        <v>-0.372071307300509</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.324459869058272</v>
+        <v>-0.855438747252422</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0433777664974506</v>
+        <v>7.59393333531565e-05</v>
       </c>
       <c r="N43" t="n">
-        <v>-3.44765521132692</v>
+        <v>-0.400076674516677</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4335,93 +4331,6 @@
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Porewa at Onepuhi Road</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>15</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.055611879571221</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>92</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.385854637650539</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-0.855766123569075</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-0.419407214837542</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Very unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1809176.4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5560800.59</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Rang_4c</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
+++ b/trend_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -136,6 +136,9 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
@@ -145,43 +148,43 @@
     <t>RepSite</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
     <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,37 +663,37 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.012309569071535</v>
+        <v>0.058237882232525</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.948275862068966</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.48</v>
+        <v>11.615</v>
       </c>
       <c r="K2">
-        <v>-0.292429356357928</v>
+        <v>-0.233268907563026</v>
       </c>
       <c r="L2">
-        <v>-0.476689833069566</v>
+        <v>-0.467441611980119</v>
       </c>
       <c r="M2">
-        <v>-0.0755859354852455</v>
+        <v>0.0100795557030341</v>
       </c>
       <c r="N2">
-        <v>-2.54729404492968</v>
+        <v>-2.00834186451163</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2">
         <v>1809176.4</v>
@@ -699,19 +702,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,13 +734,13 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.882833406396895</v>
+        <v>0.226979577176203</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.5344827586206899</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -746,22 +749,22 @@
         <v>0.0205</v>
       </c>
       <c r="K3">
-        <v>-0.0013731203007518</v>
+        <v>0.0014625763003579</v>
       </c>
       <c r="L3">
-        <v>-0.0023506094492806</v>
+        <v>-0.0019896204783028</v>
       </c>
       <c r="M3">
-        <v>0.001003434065934</v>
+        <v>0.0029878809159488</v>
       </c>
       <c r="N3">
-        <v>-6.69814780854576</v>
+        <v>7.13451853833133</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1809176.4</v>
@@ -770,19 +773,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,13 +805,13 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.197015536000044</v>
+        <v>0.200813669925518</v>
       </c>
       <c r="G4">
         <v>0.0172413793103448</v>
       </c>
       <c r="H4">
-        <v>0.741379310344828</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -817,19 +820,19 @@
         <v>135</v>
       </c>
       <c r="K4">
-        <v>8.91941391941392</v>
+        <v>8.384249084249079</v>
       </c>
       <c r="L4">
-        <v>-8.360192217868979</v>
+        <v>-6.6968376690216</v>
       </c>
       <c r="M4">
-        <v>25.5552398119848</v>
+        <v>24.0809783828333</v>
       </c>
       <c r="N4">
-        <v>6.60697327363994</v>
+        <v>6.21055487722154</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
         <v>45</v>
@@ -841,19 +844,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,40 +873,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.670483639912164</v>
+        <v>0.712668791571519</v>
       </c>
       <c r="G5">
+        <v>0.452830188679245</v>
+      </c>
+      <c r="H5">
         <v>0.547169811320755</v>
       </c>
-      <c r="H5">
-        <v>0.584905660377358</v>
-      </c>
       <c r="I5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.0116318975457732</v>
+        <v>0.0111486415677391</v>
       </c>
       <c r="K5">
-        <v>-0.0004082618455799</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0022891578385281</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.50984733121477</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>1809176.4</v>
@@ -912,19 +915,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,28 +944,28 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.943678191505802</v>
+        <v>0.852380671687314</v>
       </c>
       <c r="G6">
-        <v>0.448275862068966</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.224137931034483</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0025</v>
+        <v>0.0015</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.0003751870785194</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
         <v>46</v>
@@ -983,19 +986,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1009,31 +1012,31 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>0.939360198854349</v>
+      </c>
+      <c r="G7">
+        <v>0.413793103448276</v>
+      </c>
+      <c r="H7">
+        <v>0.568965517241379</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>0.714484564267869</v>
-      </c>
-      <c r="G7">
-        <v>0.344827586206897</v>
-      </c>
-      <c r="H7">
-        <v>0.620689655172414</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7">
-        <v>0.0195</v>
+        <v>0.0155</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0037628777472527</v>
+        <v>-0.00504829816432</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1042,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1809176.4</v>
@@ -1054,19 +1057,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,37 +1089,37 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.015038932103785</v>
+        <v>0.002397368722112</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.807017543859649</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.41</v>
+        <v>8.445</v>
       </c>
       <c r="K8">
-        <v>-0.089715305809056</v>
+        <v>-0.131163167189953</v>
       </c>
       <c r="L8">
-        <v>-0.158329510567143</v>
+        <v>-0.200686813186813</v>
       </c>
       <c r="M8">
-        <v>-0.0221516989744448</v>
+        <v>-0.0559830143580082</v>
       </c>
       <c r="N8">
-        <v>-1.06676939130863</v>
+        <v>-1.55314585186445</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1809176.4</v>
@@ -1125,16 +1128,16 @@
         <v>5560800.59</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,37 +1157,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.722866081837841</v>
+        <v>0.529544511386084</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.741379310344828</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="K9">
-        <v>-0.0018329265849612</v>
+        <v>-0.0001254292582417</v>
       </c>
       <c r="L9">
-        <v>-0.0067423320219957</v>
+        <v>-0.0037795401452869</v>
       </c>
       <c r="M9">
-        <v>0.0012845923623766</v>
+        <v>0.0020188020115412</v>
       </c>
       <c r="N9">
-        <v>-6.10975528320421</v>
+        <v>-0.482420224006763</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1809176.4</v>
@@ -1193,19 +1196,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,7 +1228,7 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0519443296589569</v>
+        <v>0.149027875134234</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1237,25 +1240,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.445</v>
+        <v>0.435</v>
       </c>
       <c r="K10">
-        <v>0.0200114895698032</v>
+        <v>0.0173973771161271</v>
       </c>
       <c r="L10">
-        <v>-0.0003135300910495</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M10">
-        <v>0.0676688716226138</v>
+        <v>0.0493951708729786</v>
       </c>
       <c r="N10">
-        <v>4.49696394827039</v>
+        <v>3.99939703819014</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1809176.4</v>
@@ -1264,19 +1267,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,7 +1299,7 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0454090968317935</v>
+        <v>0.08342368289967921</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1308,25 +1311,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.041</v>
+        <v>0.0415</v>
       </c>
       <c r="K11">
-        <v>0.0031217948717948</v>
+        <v>0.0022935635792778</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.0005109368084911001</v>
       </c>
       <c r="M11">
-        <v>0.00599512382712</v>
+        <v>0.0056204126235989</v>
       </c>
       <c r="N11">
-        <v>7.61413383364603</v>
+        <v>5.52665922717558</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>1809176.4</v>
@@ -1335,19 +1338,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,37 +1370,37 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.0380207379151217</v>
+        <v>0.35545855669431</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.844827586206897</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.139811813186813</v>
+        <v>0.008803737813433099</v>
       </c>
       <c r="L12">
-        <v>0.0116244057390153</v>
+        <v>-0.0465320436493009</v>
       </c>
       <c r="M12">
-        <v>0.354620008574799</v>
+        <v>0.180662718431121</v>
       </c>
       <c r="N12">
-        <v>13.3154107796965</v>
+        <v>0.88037378134331</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1809176.4</v>
@@ -1406,19 +1409,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,37 +1441,37 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>4.65200265398202E-06</v>
+        <v>2.97982005450503E-05</v>
       </c>
       <c r="G13">
-        <v>0.0178571428571429</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.803571428571429</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.35</v>
+        <v>0.6</v>
       </c>
       <c r="K13">
-        <v>-0.399905454191769</v>
+        <v>-0.239385560675883</v>
       </c>
       <c r="L13">
-        <v>-0.565569588696764</v>
+        <v>-0.400961473015955</v>
       </c>
       <c r="M13">
-        <v>-0.225626968545615</v>
+        <v>-0.08210532405936689</v>
       </c>
       <c r="N13">
-        <v>-29.6226262364273</v>
+        <v>-39.8975934459805</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1809176.4</v>
@@ -1477,19 +1480,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,37 +1512,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.97150084679474</v>
+        <v>0.963878489966031</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.88135593220339</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.075</v>
+        <v>11.28</v>
       </c>
       <c r="K14">
-        <v>0.05746845169627</v>
+        <v>0.0569307972215103</v>
       </c>
       <c r="L14">
-        <v>0.0096055211296662</v>
+        <v>0.002719573706425</v>
       </c>
       <c r="M14">
-        <v>0.125538707543132</v>
+        <v>0.113638577309873</v>
       </c>
       <c r="N14">
-        <v>0.518902498386185</v>
+        <v>0.504705649126865</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>1809176.4</v>
@@ -1548,19 +1551,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>0.176833977230456</v>
+        <v>0.552754613883921</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1592,25 +1595,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0205</v>
+        <v>0.0225</v>
       </c>
       <c r="K15">
-        <v>0.0003334111384418</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.0002496942573654</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="M15">
-        <v>0.0008007646292411</v>
+        <v>0.0004969529549651</v>
       </c>
       <c r="N15">
-        <v>1.62639579727731</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1809176.4</v>
@@ -1619,19 +1622,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,13 +1654,13 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.999903197937666</v>
+        <v>0.999982050294993</v>
       </c>
       <c r="G16">
         <v>0.008547008547008499</v>
       </c>
       <c r="H16">
-        <v>0.735042735042735</v>
+        <v>0.760683760683761</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1666,22 +1669,22 @@
         <v>190</v>
       </c>
       <c r="K16">
-        <v>-20.5534648611782</v>
+        <v>-22.2479428038821</v>
       </c>
       <c r="L16">
-        <v>-32.3067584532153</v>
+        <v>-34.7857142857143</v>
       </c>
       <c r="M16">
-        <v>-11.1914112710042</v>
+        <v>-13.0354567436211</v>
       </c>
       <c r="N16">
-        <v>-10.8176130848306</v>
+        <v>-11.7094435809906</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1809176.4</v>
@@ -1690,19 +1693,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>0.0460631148777095</v>
+        <v>0.0324059312981705</v>
       </c>
       <c r="G17">
-        <v>0.696428571428571</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="H17">
-        <v>0.482142857142857</v>
+        <v>0.531531531531532</v>
       </c>
       <c r="I17">
         <v>22</v>
       </c>
       <c r="J17">
-        <v>0.0067447316855871</v>
+        <v>0.008277069981600001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1743,16 +1746,16 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0002802096835896</v>
+        <v>0.0002898804500583</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q17">
         <v>1809176.4</v>
@@ -1761,19 +1764,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>0.821029238133458</v>
+        <v>0.924470791920835</v>
       </c>
       <c r="G18">
-        <v>0.389830508474576</v>
+        <v>0.449152542372881</v>
       </c>
       <c r="H18">
         <v>0.152542372881356</v>
@@ -1820,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1809176.4</v>
@@ -1832,19 +1835,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,40 +1864,40 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.885733716954704</v>
+        <v>0.999595303405537</v>
       </c>
       <c r="G19">
-        <v>0.338983050847458</v>
+        <v>0.347457627118644</v>
       </c>
       <c r="H19">
-        <v>0.627118644067797</v>
+        <v>0.61864406779661</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>0.0275</v>
+        <v>0.024</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0009615424937097999</v>
       </c>
       <c r="L19">
-        <v>-0.0005010288065843</v>
+        <v>-0.0034165665448666</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-4.00642705712422</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q19">
         <v>1809176.4</v>
@@ -1903,19 +1906,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,37 +1938,37 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.999938568856804</v>
+        <v>0.999500780777445</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.658119658119658</v>
+        <v>0.612068965517241</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.289999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="K20">
-        <v>0.0476093089262732</v>
+        <v>0.0418630810910224</v>
       </c>
       <c r="L20">
-        <v>0.0292971058309302</v>
+        <v>0.0233751347381041</v>
       </c>
       <c r="M20">
-        <v>0.0703564720068434</v>
+        <v>0.06315808073533501</v>
       </c>
       <c r="N20">
-        <v>0.57429805701174</v>
+        <v>0.501955408765256</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q20">
         <v>1809176.4</v>
@@ -1974,16 +1977,16 @@
         <v>5560800.59</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2000,40 +2003,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21">
-        <v>0.774222759984256</v>
+        <v>0.995383495642936</v>
       </c>
       <c r="G21">
         <v>0.0677966101694915</v>
       </c>
       <c r="H21">
-        <v>0.6949152542372879</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0018754278868096</v>
       </c>
       <c r="L21">
-        <v>-0.0017472572591017</v>
+        <v>-0.004482919694302</v>
       </c>
       <c r="M21">
-        <v>0.0004936904087849</v>
+        <v>-0.0002185941732639</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-5.86071214628024</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q21">
         <v>1809176.4</v>
@@ -2042,19 +2045,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,13 +2077,13 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.968062072232978</v>
+        <v>0.990228380564159</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.76271186440678</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2089,19 +2092,19 @@
         <v>0.455</v>
       </c>
       <c r="K22">
-        <v>-0.0066259171168265</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L22">
-        <v>-0.0125378243696596</v>
+        <v>-0.0219893893391624</v>
       </c>
       <c r="M22">
-        <v>-0.0007118499365782001</v>
+        <v>-0.0033234758871701</v>
       </c>
       <c r="N22">
-        <v>-1.45624552018167</v>
+        <v>-2.20534959545949</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
         <v>53</v>
@@ -2113,19 +2116,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,7 +2148,7 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.0870999560686289</v>
+        <v>0.784200120971741</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2157,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="K23">
-        <v>0.0009262468300929001</v>
+        <v>-0.0004700772200772</v>
       </c>
       <c r="L23">
-        <v>-0.0001931542895231</v>
+        <v>-0.0016161504424778</v>
       </c>
       <c r="M23">
-        <v>0.0020068681318681</v>
+        <v>0.0005733049149137</v>
       </c>
       <c r="N23">
-        <v>2.20534959545949</v>
+        <v>-1.09320283738888</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>1809176.4</v>
@@ -2184,19 +2187,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,37 +2219,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.271662092424094</v>
+        <v>0.663946018317622</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.864406779661017</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="K24">
-        <v>0.018295019177939</v>
+        <v>-0.0093692505012383</v>
       </c>
       <c r="L24">
-        <v>-0.0225349039735457</v>
+        <v>-0.0517455425206005</v>
       </c>
       <c r="M24">
-        <v>0.0680509940967518</v>
+        <v>0.0267670407773259</v>
       </c>
       <c r="N24">
-        <v>1.35518660577326</v>
+        <v>-0.72629848846809</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1809176.4</v>
@@ -2255,19 +2258,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,37 +2290,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.135304980834187</v>
+        <v>0.005786525016206</v>
       </c>
       <c r="G25">
-        <v>0.0294117647058824</v>
+        <v>0.0315789473684211</v>
       </c>
       <c r="H25">
-        <v>0.627450980392157</v>
+        <v>0.652631578947368</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="K25">
-        <v>-0.0228308794598593</v>
+        <v>-0.0668420879120879</v>
       </c>
       <c r="L25">
-        <v>-0.0856872282753308</v>
+        <v>-0.166564564588394</v>
       </c>
       <c r="M25">
-        <v>0.0152977199964426</v>
+        <v>-0.0106535320261881</v>
       </c>
       <c r="N25">
-        <v>-1.47295996515221</v>
+        <v>-4.45613919413919</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q25">
         <v>1809176.4</v>
@@ -2326,19 +2329,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,37 +2361,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.884001985281595</v>
+        <v>0.9842005077967571</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.818181818181818</v>
+        <v>0.8258426966292139</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>11.075</v>
+        <v>11.095</v>
       </c>
       <c r="K26">
-        <v>0.0283578819918625</v>
+        <v>0.0433896276595745</v>
       </c>
       <c r="L26">
-        <v>-0.0096820175519572</v>
+        <v>0.008914570578444799</v>
       </c>
       <c r="M26">
-        <v>0.0571424230367311</v>
+        <v>0.0762951455759706</v>
       </c>
       <c r="N26">
-        <v>0.256053110536005</v>
+        <v>0.391073705809595</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q26">
         <v>1809176.4</v>
@@ -2397,19 +2400,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,16 +2429,16 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27">
-        <v>0.39108313628819</v>
+        <v>0.09505868279045671</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.264044943820225</v>
+        <v>0.269662921348315</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2444,22 +2447,22 @@
         <v>0.021</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.0002109669496607</v>
       </c>
       <c r="L27">
-        <v>-0.0002866681417197</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.000333040880877</v>
+        <v>0.0004990742620192</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.00460452219387</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1809176.4</v>
@@ -2468,19 +2471,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,40 +2500,40 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>0.999999998614974</v>
+        <v>0.999999999851522</v>
       </c>
       <c r="G28">
-        <v>0.0113636363636364</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H28">
-        <v>0.789772727272727</v>
+        <v>0.806818181818182</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>277.5</v>
+        <v>229.5</v>
       </c>
       <c r="K28">
-        <v>-29.7513746098131</v>
+        <v>-28.3719929939535</v>
       </c>
       <c r="L28">
-        <v>-41.8490932599285</v>
+        <v>-39.290493648057</v>
       </c>
       <c r="M28">
-        <v>-20.5978744732509</v>
+        <v>-20.1007212608668</v>
       </c>
       <c r="N28">
-        <v>-10.7212160756083</v>
+        <v>-12.3625241803719</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1809176.4</v>
@@ -2539,19 +2542,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,22 +2571,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29">
-        <v>0.955149817609618</v>
+        <v>0.8551539981542901</v>
       </c>
       <c r="G29">
-        <v>0.581395348837209</v>
+        <v>0.573099415204678</v>
       </c>
       <c r="H29">
-        <v>0.534883720930233</v>
+        <v>0.5380116959064331</v>
       </c>
       <c r="I29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29">
-        <v>0.0086949671057486</v>
+        <v>0.008781357832593701</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2598,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q29">
         <v>1809176.4</v>
@@ -2610,19 +2613,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,22 +2642,22 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>0.97427476620939</v>
+        <v>0.956200083423224</v>
       </c>
       <c r="G30">
-        <v>0.380952380952381</v>
+        <v>0.398876404494382</v>
       </c>
       <c r="H30">
-        <v>0.130952380952381</v>
+        <v>0.123595505617978</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30">
-        <v>0.00275</v>
+        <v>0.0025</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2669,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q30">
         <v>1809176.4</v>
@@ -2681,19 +2684,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2710,28 +2713,28 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>0.988513418838037</v>
+        <v>0.997541587122608</v>
       </c>
       <c r="G31">
-        <v>0.31547619047619</v>
+        <v>0.342696629213483</v>
       </c>
       <c r="H31">
-        <v>0.630952380952381</v>
+        <v>0.612359550561798</v>
       </c>
       <c r="I31">
         <v>3</v>
       </c>
       <c r="J31">
-        <v>0.052</v>
+        <v>0.032</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.000839055118319</v>
+        <v>-0.0006621108750633</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2740,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
         <v>53</v>
@@ -2752,19 +2755,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,37 +2787,37 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.99999997086911</v>
+        <v>0.999999859867401</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.621468926553672</v>
+        <v>0.602272727272727</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>8.210000000000001</v>
+        <v>8.244999999999999</v>
       </c>
       <c r="K32">
-        <v>0.0421950931968535</v>
+        <v>0.0373198384128187</v>
       </c>
       <c r="L32">
-        <v>0.0303620493424524</v>
+        <v>0.026626802086812</v>
       </c>
       <c r="M32">
-        <v>0.0543535788720184</v>
+        <v>0.0477895646406327</v>
       </c>
       <c r="N32">
-        <v>0.513947541983599</v>
+        <v>0.452636002581185</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q32">
         <v>1809176.4</v>
@@ -2823,16 +2826,16 @@
         <v>5560800.59</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2849,40 +2852,40 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>0.998693531472582</v>
+        <v>0.998630719181497</v>
       </c>
       <c r="G33">
         <v>0.0449438202247191</v>
       </c>
       <c r="H33">
-        <v>0.7247191011235951</v>
+        <v>0.713483146067416</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0.06525</v>
+        <v>0.0575</v>
       </c>
       <c r="K33">
-        <v>-0.0012076232667855</v>
+        <v>-0.001402116489832</v>
       </c>
       <c r="L33">
-        <v>-0.003010292009956</v>
+        <v>-0.0030542170636684</v>
       </c>
       <c r="M33">
-        <v>-0.000468071487847</v>
+        <v>-0.0004836255796845</v>
       </c>
       <c r="N33">
-        <v>-1.85076362725758</v>
+        <v>-2.4384634605774</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <v>1809176.4</v>
@@ -2891,19 +2894,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2923,37 +2926,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.999976227592454</v>
+        <v>0.999743501311121</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.713483146067416</v>
+        <v>0.691011235955056</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.5525</v>
+        <v>0.49</v>
       </c>
       <c r="K34">
-        <v>-0.0121512676534578</v>
+        <v>-0.0094570567406234</v>
       </c>
       <c r="L34">
-        <v>-0.0215963001742783</v>
+        <v>-0.0172394794992879</v>
       </c>
       <c r="M34">
-        <v>-0.0065711114352958</v>
+        <v>-0.0043908101025051</v>
       </c>
       <c r="N34">
-        <v>-2.1993244621643</v>
+        <v>-1.93001157971907</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q34">
         <v>1809176.4</v>
@@ -2962,19 +2965,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,40 +2994,40 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F35">
-        <v>0.712250593824641</v>
+        <v>0.474914866311561</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>0.48876404494382</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.0415</v>
+        <v>0.041</v>
       </c>
       <c r="K35">
-        <v>-0.0002239423666462</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.0009484718818424</v>
+        <v>-0.0005808709708272</v>
       </c>
       <c r="M35">
-        <v>0.0004240563707878</v>
+        <v>0.0006067275747508</v>
       </c>
       <c r="N35">
-        <v>-0.539620160593324</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <v>1809176.4</v>
@@ -3033,19 +3036,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3065,37 +3068,37 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.968429510451394</v>
+        <v>0.961758530616759</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.853932584269663</v>
+        <v>0.842696629213483</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.795</v>
+        <v>1.42</v>
       </c>
       <c r="K36">
-        <v>-0.0301030219780219</v>
+        <v>-0.0219383553853441</v>
       </c>
       <c r="L36">
-        <v>-0.0739167890666326</v>
+        <v>-0.0575002084422464</v>
       </c>
       <c r="M36">
-        <v>-0.0037800594171072</v>
+        <v>-0.0017865894499754</v>
       </c>
       <c r="N36">
-        <v>-1.67704857816278</v>
+        <v>-1.5449546046017</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q36">
         <v>1809176.4</v>
@@ -3104,19 +3107,19 @@
         <v>5560800.59</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3148,25 +3151,25 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="K37">
         <v>0.0143751563528637</v>
       </c>
       <c r="L37">
-        <v>-0.07344557001555289</v>
+        <v>-0.0707304909470189</v>
       </c>
       <c r="M37">
         <v>0.0482541542222427</v>
       </c>
       <c r="N37">
-        <v>4.22798716260698</v>
+        <v>4.79171878428791</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q37">
         <v>1809176.4</v>
@@ -3175,16 +3178,16 @@
         <v>5560800.59</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3204,7 +3207,7 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.693322822022627</v>
+        <v>0.9352243235477961</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3216,25 +3219,25 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>91</v>
+        <v>93.33</v>
       </c>
       <c r="K38">
-        <v>0.8309123480908021</v>
+        <v>3.49615230618409</v>
       </c>
       <c r="L38">
-        <v>-6.17355492696375</v>
+        <v>-1.36896409067606</v>
       </c>
       <c r="M38">
-        <v>3.64586929667761</v>
+        <v>4.10677517007216</v>
       </c>
       <c r="N38">
-        <v>0.913090492407475</v>
+        <v>3.74601125702785</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q38">
         <v>1809176.4</v>
@@ -3243,16 +3246,16 @@
         <v>5560800.59</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3284,25 +3287,25 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>4.51</v>
+        <v>4.274</v>
       </c>
       <c r="K39">
-        <v>0.168698314360488</v>
+        <v>0.0976916814551908</v>
       </c>
       <c r="L39">
-        <v>-0.883821904727444</v>
+        <v>-1.34077149079616</v>
       </c>
       <c r="M39">
         <v>0.89336613269967</v>
       </c>
       <c r="N39">
-        <v>3.74053912107513</v>
+        <v>2.28572020250797</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q39">
         <v>1809176.4</v>
@@ -3311,16 +3314,16 @@
         <v>5560800.59</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3340,7 +3343,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.125726093254011</v>
+        <v>0.174041311816462</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3352,22 +3355,22 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="K40">
-        <v>-0.0107939159304116</v>
+        <v>-0.0092966021242426</v>
       </c>
       <c r="L40">
-        <v>-0.0240185244782344</v>
+        <v>-0.0229966688173798</v>
       </c>
       <c r="M40">
-        <v>0.0011316704475812</v>
+        <v>0.0012248501848381</v>
       </c>
       <c r="N40">
-        <v>-2.63266242205161</v>
+        <v>-2.73429474242431</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P40" t="s">
         <v>45</v>
@@ -3379,16 +3382,16 @@
         <v>5560800.59</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3408,7 +3411,7 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.428445211206309</v>
+        <v>0.764648503744295</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3423,22 +3426,22 @@
         <v>90.5</v>
       </c>
       <c r="K41">
-        <v>-0.08089834710743821</v>
+        <v>0.540329853398489</v>
       </c>
       <c r="L41">
-        <v>-0.931764702796414</v>
+        <v>-0.469013638715311</v>
       </c>
       <c r="M41">
-        <v>0.581384179778491</v>
+        <v>0.962250087664928</v>
       </c>
       <c r="N41">
-        <v>-0.0893904387927494</v>
+        <v>0.597049561766286</v>
       </c>
       <c r="O41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q41">
         <v>1809176.4</v>
@@ -3447,16 +3450,16 @@
         <v>5560800.59</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3476,7 +3479,7 @@
         <v>39</v>
       </c>
       <c r="F42">
-        <v>0.541517381685568</v>
+        <v>0.377227088747045</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3488,25 +3491,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>4.946</v>
+        <v>4.51</v>
       </c>
       <c r="K42">
-        <v>0.0719143382687072</v>
+        <v>-0.06658097591376699</v>
       </c>
       <c r="L42">
-        <v>-0.22805470822971</v>
+        <v>-0.255004337043518</v>
       </c>
       <c r="M42">
-        <v>0.151062072967053</v>
+        <v>0.116950377240881</v>
       </c>
       <c r="N42">
-        <v>1.45398985581697</v>
+        <v>-1.47629658345381</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q42">
         <v>1809176.4</v>
@@ -3515,16 +3518,16 @@
         <v>5560800.59</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3532,7 +3535,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>15</v>
@@ -3544,55 +3547,259 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.089228300179184</v>
+        <v>0.077314875982908</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.7333333333333329</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
+        <v>0.399</v>
+      </c>
+      <c r="K43">
+        <v>-0.009481772990886501</v>
+      </c>
+      <c r="L43">
+        <v>-0.0187122390100103</v>
+      </c>
+      <c r="M43">
+        <v>0.00025416967762</v>
+      </c>
+      <c r="N43">
+        <v>-2.37638420824223</v>
+      </c>
+      <c r="O43" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43">
+        <v>1809176.4</v>
+      </c>
+      <c r="R43">
+        <v>5560800.59</v>
+      </c>
+      <c r="S43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44">
+        <v>0.212911889509723</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>93</v>
       </c>
-      <c r="K43">
-        <v>-0.372071307300509</v>
-      </c>
-      <c r="L43">
-        <v>-0.855438747252422</v>
-      </c>
-      <c r="M43">
-        <v>7.59393333531565E-05</v>
-      </c>
-      <c r="N43">
-        <v>-0.400076674516677</v>
-      </c>
-      <c r="O43" t="s">
-        <v>42</v>
-      </c>
-      <c r="P43" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q43">
-        <v>1809176.4</v>
-      </c>
-      <c r="R43">
-        <v>5560800.59</v>
-      </c>
-      <c r="S43" t="s">
-        <v>56</v>
-      </c>
-      <c r="T43" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" t="s">
-        <v>58</v>
-      </c>
-      <c r="V43" t="s">
-        <v>59</v>
+      <c r="K44">
+        <v>-0.184005037783375</v>
+      </c>
+      <c r="L44">
+        <v>-0.753759695693176</v>
+      </c>
+      <c r="M44">
+        <v>0.278174020198018</v>
+      </c>
+      <c r="N44">
+        <v>-0.197854879336963</v>
+      </c>
+      <c r="O44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44">
+        <v>1809176.4</v>
+      </c>
+      <c r="R44">
+        <v>5560800.59</v>
+      </c>
+      <c r="S44" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>0.136780705862374</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4.983</v>
+      </c>
+      <c r="K45">
+        <v>-0.06664210526315779</v>
+      </c>
+      <c r="L45">
+        <v>-0.220727505105548</v>
+      </c>
+      <c r="M45">
+        <v>0.0490631378430979</v>
+      </c>
+      <c r="N45">
+        <v>-1.33738922864053</v>
+      </c>
+      <c r="O45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45">
+        <v>1809176.4</v>
+      </c>
+      <c r="R45">
+        <v>5560800.59</v>
+      </c>
+      <c r="S45" t="s">
+        <v>57</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <v>0.283798946915039</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>93</v>
+      </c>
+      <c r="K46">
+        <v>-0.126575534343225</v>
+      </c>
+      <c r="L46">
+        <v>-0.408649555319645</v>
+      </c>
+      <c r="M46">
+        <v>0.110060890512825</v>
+      </c>
+      <c r="N46">
+        <v>-0.136102725100242</v>
+      </c>
+      <c r="O46" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <v>1809176.4</v>
+      </c>
+      <c r="R46">
+        <v>5560800.59</v>
+      </c>
+      <c r="S46" t="s">
+        <v>57</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
